--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.678259475</v>
+        <v>284268.3475264954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13422542.12428371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362874</v>
+        <v>8612043.826722361</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819595</v>
+        <v>8816158.211885132</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.6649492891022</v>
+        <v>102.4617421717816</v>
       </c>
       <c r="C2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328823</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.55555711582397</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.61928733384123</v>
+        <v>146.8461210887085</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
-        <v>67.27654854321852</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.41405905276465</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>129.3420634549343</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U5" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887085</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.48596657490297</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>112.1126601249237</v>
+        <v>139.9461157276005</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>21.41405905276465</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>127.429877995854</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>144.6751566710423</v>
+        <v>39.70122005611973</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>144.6751566710423</v>
+        <v>77.36042051497279</v>
       </c>
       <c r="Y9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11.08421257821694</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.396723986041656</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>26.28051149992506</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>60.09988737406863</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663201</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>159.9272126974439</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.52558716632</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>187.52558716632</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>56.95878470060131</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7871545982911</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.73619264967322</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>141.1762660121933</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>71.31461021972551</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.02930569165356</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.3866485609004</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>98.94136292502277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>37.28707743115451</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>112.0694611673713</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>64.32802064286972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>110.9192708864241</v>
+        <v>224.7411810187706</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>129.8422893212633</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>142.5708055487648</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>286.4654361897219</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>228.723499869213</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>245.4782705995525</v>
+        <v>223.4096551115026</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>76.28380354614087</v>
       </c>
       <c r="H31" t="n">
-        <v>7.450859445799503</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>126.5388824951709</v>
+        <v>47.22555979368813</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>168.7133289566194</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>142.1943596928084</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840612</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>52.53157754970143</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>173.2727459667329</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.6496787807632</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5219900933418</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>396.2433420806158</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>286.8517409876633</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>150.3013276789174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.7029035467944</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>138.899218037197</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>188.2196394312103</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>98.02480001577896</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.6151136988902</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="C2" t="n">
-        <v>101.0141548210092</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="D2" t="n">
-        <v>101.0141548210092</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="E2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.1363403611662</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056149</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.650846758856</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735303</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>566.6212953489513</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>566.6212953489513</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564088</v>
+        <v>566.6212953489513</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564088</v>
+        <v>566.6212953489513</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564088</v>
+        <v>566.6212953489513</v>
       </c>
       <c r="W2" t="n">
-        <v>370.6597971564088</v>
+        <v>418.2918801078316</v>
       </c>
       <c r="X2" t="n">
-        <v>370.6597971564088</v>
+        <v>269.9624648667118</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.2160725767712</v>
+        <v>121.633049625592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>7.413195943128176</v>
+        <v>12.36141687342358</v>
       </c>
       <c r="L3" t="n">
-        <v>81.81537555601327</v>
+        <v>111.955424848822</v>
       </c>
       <c r="M3" t="n">
-        <v>173.5536753522244</v>
+        <v>247.5338027825022</v>
       </c>
       <c r="N3" t="n">
-        <v>265.2919751484357</v>
+        <v>392.9114626603237</v>
       </c>
       <c r="O3" t="n">
-        <v>355.9587375475837</v>
+        <v>511.1831359408224</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>586.7735145200476</v>
       </c>
       <c r="Q3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U3" t="n">
-        <v>262.5712233385049</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="V3" t="n">
-        <v>168.9702644606239</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="W3" t="n">
-        <v>75.36930558274285</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="X3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.12595803543237</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510262</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.969012809993892</v>
+        <v>290.7256538725944</v>
       </c>
       <c r="C5" t="n">
-        <v>8.969012809993892</v>
+        <v>290.7256538725944</v>
       </c>
       <c r="D5" t="n">
-        <v>8.969012809993892</v>
+        <v>290.7256538725944</v>
       </c>
       <c r="E5" t="n">
-        <v>8.969012809993892</v>
+        <v>290.7256538725944</v>
       </c>
       <c r="F5" t="n">
-        <v>8.969012809993892</v>
+        <v>142.3962386314747</v>
       </c>
       <c r="G5" t="n">
-        <v>8.969012809993892</v>
+        <v>142.3962386314747</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993892</v>
+        <v>142.3962386314747</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>53.10181779182997</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>141.3070323458392</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066253</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>407.6508467588557</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>523.23612467353</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="Q5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="R5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="S5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="T5" t="n">
-        <v>448.4506404996946</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="U5" t="n">
-        <v>348.7043465218837</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="V5" t="n">
-        <v>348.7043465218837</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="W5" t="n">
-        <v>235.4592352845871</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="X5" t="n">
-        <v>235.4592352845871</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.2141240472905</v>
+        <v>290.7256538725944</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187.1261083534822</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="C6" t="n">
-        <v>73.8809971161856</v>
+        <v>297.695356257552</v>
       </c>
       <c r="D6" t="n">
-        <v>73.8809971161856</v>
+        <v>149.3659410164323</v>
       </c>
       <c r="E6" t="n">
-        <v>73.8809971161856</v>
+        <v>149.3659410164323</v>
       </c>
       <c r="F6" t="n">
-        <v>73.8809971161856</v>
+        <v>149.3659410164323</v>
       </c>
       <c r="G6" t="n">
-        <v>73.8809971161856</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H6" t="n">
-        <v>73.8809971161856</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616808</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415665</v>
       </c>
       <c r="M6" t="n">
-        <v>176.439439640395</v>
+        <v>248.1447726172886</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>393.52243249511</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>511.7941057756086</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="Q6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="R6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="S6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="T6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="U6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="V6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548338</v>
       </c>
       <c r="W6" t="n">
-        <v>448.4506404996946</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="X6" t="n">
-        <v>335.205529262398</v>
+        <v>439.0550691137141</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.9604180251014</v>
+        <v>439.0550691137141</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L7" t="n">
-        <v>8.969012809993892</v>
+        <v>14.12595803543236</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>19.89179156510261</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665693</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.4275829042857</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="C8" t="n">
-        <v>286.4275829042857</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="D8" t="n">
-        <v>286.4275829042857</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="E8" t="n">
-        <v>286.4275829042857</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="F8" t="n">
-        <v>140.291061014344</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G8" t="n">
-        <v>140.291061014344</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>140.291061014344</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>432.5641047942274</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="V8" t="n">
-        <v>432.5641047942274</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="W8" t="n">
-        <v>286.4275829042857</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="X8" t="n">
-        <v>286.4275829042857</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.4275829042857</v>
+        <v>520.5803211678657</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.291061014344</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="C9" t="n">
-        <v>140.291061014344</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D9" t="n">
-        <v>140.291061014344</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620005</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>578.7006266841692</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S9" t="n">
-        <v>578.7006266841692</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T9" t="n">
-        <v>578.7006266841692</v>
+        <v>487.5180226099429</v>
       </c>
       <c r="U9" t="n">
-        <v>578.7006266841692</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="V9" t="n">
-        <v>578.7006266841692</v>
+        <v>108.6784525769735</v>
       </c>
       <c r="W9" t="n">
-        <v>432.5641047942274</v>
+        <v>108.6784525769735</v>
       </c>
       <c r="X9" t="n">
-        <v>286.4275829042857</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="Y9" t="n">
-        <v>140.291061014344</v>
+        <v>30.53661367296053</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.8416170062756</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>393.8416170062756</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>393.8416170062756</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>393.8416170062756</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8416170062756</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>204.4218319897906</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330561</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678512</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058962</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079187</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644759</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123835</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985591</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020272</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652805</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652805</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>589.7227393823986</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>583.2614020227605</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>393.8416170062756</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>393.8416170062756</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W11" t="n">
-        <v>393.8416170062756</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X11" t="n">
-        <v>393.8416170062756</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.8416170062756</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.3994882033918</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>234.9464589222648</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>234.9464589222648</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>75.70900391680928</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>75.70900391680928</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>75.70900391680928</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330561</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330561</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330561</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024219</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772652</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140247</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546606</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017069</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652805</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652805</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>598.8192732198768</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>409.3994882033918</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>409.3994882033918</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>409.3994882033918</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>409.3994882033918</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>409.3994882033918</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>409.3994882033918</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.24882464404144</v>
+        <v>228.0547555205106</v>
       </c>
       <c r="C13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>29.24882464404144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>29.24882464404144</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330561</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>49.45491281910444</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.24882464404144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>29.24882464404144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>29.24882464404144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>29.24882464404144</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U13" t="n">
-        <v>29.24882464404144</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V13" t="n">
-        <v>29.24882464404144</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W13" t="n">
-        <v>29.24882464404144</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X13" t="n">
-        <v>29.24882464404144</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.24882464404144</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750.10234866528</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C14" t="n">
-        <v>583.2614020227602</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D14" t="n">
-        <v>583.2614020227602</v>
+        <v>950.1045973369978</v>
       </c>
       <c r="E14" t="n">
-        <v>393.8416170062753</v>
+        <v>950.1045973369978</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897905</v>
+        <v>539.1186925473903</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0020469733056</v>
+        <v>124.0462423923868</v>
       </c>
       <c r="H14" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644755</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>509.495204112383</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985586</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020269</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.10234866528</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>750.10234866528</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>750.10234866528</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>750.10234866528</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>750.10234866528</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>750.10234866528</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>750.10234866528</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>750.10234866528</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.10234866528</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.2627786323103</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>371.2627786323103</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>371.2627786323103</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>371.2627786323103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>224.7282206591953</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>116.8624079336487</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140245</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476352</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017066</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.10234866528</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>750.10234866528</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>750.10234866528</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>750.10234866528</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>750.10234866528</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487952</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>371.2627786323103</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>371.2627786323103</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>371.2627786323103</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.0020469733056</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0020469733056</v>
+        <v>234.5441019553002</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0020469733056</v>
+        <v>84.42746254296446</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230179</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170723</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396343</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828998</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828998</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>15.0020469733056</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>15.0020469733056</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0020469733056</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.0020469733056</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796252</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C17" t="n">
-        <v>779.1681669784198</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D17" t="n">
-        <v>779.1681669784198</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5539,13 +5539,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
         <v>2755.806928794324</v>
@@ -5554,7 +5554,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
         <v>1698.509627919559</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>449.8213709509845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>449.8213709509845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>449.8213709509845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>449.8213709509845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>302.9314234530741</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2285868277931</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5706,19 +5706,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812242</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X19" t="n">
-        <v>631.4698357812242</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.4698357812242</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1659.057359339775</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C20" t="n">
-        <v>1290.094842399363</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D20" t="n">
-        <v>1290.094842399363</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>104.1758310091072</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5752,22 +5752,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649823</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>2435.796531379709</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X20" t="n">
-        <v>2435.796531379709</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y20" t="n">
-        <v>2045.657199403897</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>445.409938468768</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="C22" t="n">
-        <v>445.409938468768</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="D22" t="n">
-        <v>445.409938468768</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>445.409938468768</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218343</v>
@@ -5937,25 +5937,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V22" t="n">
-        <v>666.2025176122982</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W22" t="n">
-        <v>666.2025176122982</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X22" t="n">
-        <v>666.2025176122982</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.409938468768</v>
+        <v>474.5166334391246</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1986.901740067214</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3103.275485574221</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="V23" t="n">
-        <v>3103.275485574221</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W23" t="n">
-        <v>2750.506830304106</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X23" t="n">
-        <v>2377.041072043026</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1986.901740067214</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3143.95735677893</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>3143.95735677893</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>2993.840717366595</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>2845.927623784201</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>2845.927623784201</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C26" t="n">
-        <v>1822.632236038042</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>1464.366537431292</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>1078.578284833048</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5923800434402</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>252.5199298884367</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6259,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="27">
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>128.5011820977088</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1381.278680221567</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C29" t="n">
-        <v>1012.316163281155</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D29" t="n">
-        <v>654.0504646744046</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E29" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6496,19 +6496,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.48361052258</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X29" t="n">
-        <v>2158.0178522615</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.878520285688</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.6772566376941</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7410737097872</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7410737097872</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7410737097872</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7410737097872</v>
+        <v>143.5664634484873</v>
       </c>
       <c r="G31" t="n">
-        <v>74.03823708450614</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6660,13 +6660,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>631.4698357812242</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y31" t="n">
-        <v>410.6772566376941</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>3197.788768583745</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="X32" t="n">
-        <v>2824.323010322666</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>2873.671976196939</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U34" t="n">
-        <v>2873.671976196939</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V34" t="n">
-        <v>2873.671976196939</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W34" t="n">
-        <v>2873.671976196939</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X34" t="n">
-        <v>2873.671976196939</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>2652.879397053409</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1734.047335491681</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.047335491681</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>1375.781636884931</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
         <v>1232.150970528558</v>
@@ -6937,10 +6937,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6979,10 +6979,10 @@
         <v>2884.252265792694</v>
       </c>
       <c r="X35" t="n">
-        <v>2510.786507531614</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y35" t="n">
-        <v>2120.647175555803</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>417.6040489720652</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>267.4874095597295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>119.5743159773364</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>119.5743159773364</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>119.5743159773364</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>119.5743159773364</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7119,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.40402049088</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926361</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030285</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>791.9479363426665</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>502.84506946831</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.300932605789</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>806.3384156653776</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>806.3384156653776</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>806.3384156653776</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>806.3384156653776</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176917</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645723</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.900772669911</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548191</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269122</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T43" t="n">
-        <v>715.1264971850588</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U43" t="n">
-        <v>715.1264971850588</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V43" t="n">
-        <v>715.1264971850588</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W43" t="n">
-        <v>715.1264971850588</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X43" t="n">
-        <v>715.1264971850588</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.1264971850588</v>
+        <v>218.3316393401808</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.66971909763</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926356</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030281</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7660,16 +7660,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339055</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372932</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.72895798776032</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.0688923743784</v>
+        <v>280.272099491699</v>
       </c>
       <c r="C2" t="n">
-        <v>272.6079424819054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>289.2654207831596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327426</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>202.3948476287045</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>222.8849795897605</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.6186513222124</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>51.47395949496052</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>22.77491242827335</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>31.77141835213729</v>
       </c>
       <c r="S3" t="n">
-        <v>153.4011028494393</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>196.197498299121</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>133.2116793033683</v>
+        <v>79.02279728521572</v>
       </c>
       <c r="V3" t="n">
-        <v>140.1356378603231</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>159.0300338718174</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
-        <v>138.496436660259</v>
+        <v>76.43092174854306</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>28.0735774154645</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474421</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.0448796648253</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>8.838436914954059</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838264</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>260.029924653003</v>
       </c>
       <c r="G5" t="n">
-        <v>413.3887043444878</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>319.8727099068761</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>1.769632077808296</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>6.324764167328823</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>20.55555711582397</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>67.23820498408327</v>
       </c>
       <c r="U5" t="n">
-        <v>152.443699216152</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.1252785311299</v>
+        <v>239.3918175673451</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.0472170749644</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>60.59583886339209</v>
+        <v>32.76238326071527</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0.5989444759302955</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3194191323308</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51.47395949496052</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>22.77491242827335</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>31.77141835213729</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X6" t="n">
-        <v>93.66032507855383</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.57003565238071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,55 +22956,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>28.0735774154645</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.72895798776032</v>
       </c>
       <c r="L7" t="n">
-        <v>3.613446413741165</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474421</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.0448796648253</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>8.838436914954059</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838264</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2531730278943</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>4.030176680200753</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>106.5065310778149</v>
+        <v>211.4680405089106</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>30.21520245954693</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.7446060180399</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>61.09782853243519</v>
+        <v>128.4125646885047</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.00753910626207</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>15.45088610797821</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637379</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399021</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>207.0471570701651</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>63.64367339871021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>343.450589178544</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>40.74186997667107</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>7.8840106256811</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>7.319608401183928</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.68201325828485</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>200.1003545949129</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753914</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>225.572246063738</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>237.6489796867191</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>29.37663476748425</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310526</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>64.1693959945996</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,31 +23655,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.6977699968959</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,31 +23694,31 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.4700942971627</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>224.0966257588142</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>283.3684314009574</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>76.72570922266722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1980047911944</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>282.989007147239</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>373.6346482222989</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24022,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>36.54601185084107</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.09302738006153</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>140.0759010724779</v>
+        <v>26.25399094013139</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.18351893776489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>152.0369588385557</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>41.28682228041305</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>34.98324540096795</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>57.79949846737802</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>136.4520994727093</v>
+        <v>158.5207149607591</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.74200471288735</v>
       </c>
       <c r="H31" t="n">
-        <v>137.3041554685213</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>222.7020862222421</v>
+        <v>302.0154089237249</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>50.83562031954975</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>239.7360103794534</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>235.2778014719924</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>43.82084286013666</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>209.4610956967477</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>222.7020862222428</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89927049540599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0.06266325875301959</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>14.67838357283762</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>40.90051748247163</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>15.72448058011082</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.84604572937477</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>215.783823583486</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>222.7020862222432</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>127.6848553732582</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>428607.5096871536</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027748</v>
+        <v>427681.856076875</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248169</v>
+        <v>443790.0256720904</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613402</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.05806134</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>135964.1225291977</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>135742.4871577225</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>142169.253493841</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="H2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="I2" t="n">
         <v>279684.830763437</v>
@@ -26343,19 +26343,19 @@
         <v>279684.8307634371</v>
       </c>
       <c r="L2" t="n">
+        <v>279684.8307634369</v>
+      </c>
+      <c r="M2" t="n">
+        <v>279684.8307634369</v>
+      </c>
+      <c r="N2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>279684.8307634369</v>
+      </c>
+      <c r="P2" t="n">
         <v>279684.830763437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279684.8307634371</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279684.830763437</v>
-      </c>
-      <c r="P2" t="n">
-        <v>279684.8307634371</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751303</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819871</v>
+        <v>43803.80384074467</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.31016216676</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090868</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179786</v>
+        <v>38421.40650613396</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393696</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353741</v>
+        <v>10295.60674904875</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114519</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668549</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>4826.555126438433</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>4591.882380170622</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>694.2707799527464</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723341</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26453,10 +26453,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.11977902088</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161358</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26499,7 +26499,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.142037458</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574274</v>
+        <v>64890.29293767225</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.6297972137</v>
+        <v>28522.23147926647</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687904</v>
+        <v>-426414.7957987997</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.847834868</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960491</v>
+        <v>200719.847834868</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130377</v>
+        <v>200719.847834868</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130375</v>
+        <v>200719.847834868</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212397</v>
+        <v>162298.441328734</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706439</v>
+        <v>200719.8478348681</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>190424.2410858191</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318923</v>
+        <v>40263.40596699045</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.47164618263</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130375</v>
+        <v>200719.8478348679</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129047</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,7 +26819,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.39307775568386</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175449</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803936</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761141</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527783</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359726</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887082</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611875</v>
+        <v>40.67946607761141</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527772</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359727</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761141</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527783</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359726</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.058600454903398</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877943</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.36419403766334</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154183</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871683</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270566</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.3212256695509</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961052</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656775</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611123</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922718</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645456</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383933</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>138.4613654251942</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>239.1543878358322</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>279.0818904206852</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>148.8239625747597</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050584</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055014</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179388</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864953</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793584</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.28560270120828</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674033</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910841</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903398</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877943</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766334</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154183</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871683</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270566</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.3212256695509</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961052</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656775</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611123</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339631</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922718</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645456</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383933</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986735</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358322</v>
       </c>
       <c r="M6" t="n">
-        <v>199.9629954989595</v>
+        <v>240.3006435944648</v>
       </c>
       <c r="N6" t="n">
-        <v>243.454372208257</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050584</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297034</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055014</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179388</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864953</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793584</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120828</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674033</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910841</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825127</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>235.9393707926325</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043121</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244295</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924582</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590851</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>298.916117797533</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550077</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>4.75513090282037</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620018</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114196</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784861</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647911</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181395</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.77184657043779</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718106</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.90816207296</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744185</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040798</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.6199264508352486</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069201</v>
+        <v>100.600008055958</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>136.9478564986669</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>119.4663366469683</v>
       </c>
       <c r="P3" t="n">
-        <v>14.84955516042941</v>
+        <v>76.35391775679312</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.617141247259184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945134</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394199</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.62248565813567</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043779</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718106</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.90816207296</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744185</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040798</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.01831452431455</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.600008055958</v>
       </c>
       <c r="M6" t="n">
-        <v>57.82896157694119</v>
+        <v>98.16660967244653</v>
       </c>
       <c r="N6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469683</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>76.35391775679312</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945134</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394199</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.62248565813567</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>104.5976587092992</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.09259053886808</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788338</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197547</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504116</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405813</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656915996</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065978</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781472</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606291</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755147</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>91.301859448557</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764999</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>12.1592157464608</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061155</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520829</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400552</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264954</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13422542.12428371</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8612043.826722361</v>
+        <v>9584464.643054398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8816158.211885132</v>
+        <v>8343623.815691861</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.4617421717816</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55555711582397</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8461210887085</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X3" t="n">
-        <v>129.3420634549344</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887085</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>129.3420634549343</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887085</v>
+        <v>80.15409932856814</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>139.9461157276005</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>89.49227226221132</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>127.429877995854</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>49.83661626531919</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>77.36042051497279</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>217.7492281982502</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26.28051149992506</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>74.12302980972373</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>159.9272126974439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>125.0721477169168</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>56.95878470060131</v>
+        <v>230.6708585950376</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>140.4501518111517</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.38112956226319</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.73619264967322</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>71.31461021972551</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>302.8836640412599</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851181</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>15.47046059858769</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.3866485609004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>228.6843085881911</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>37.28707743115451</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H21" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>112.0694611673713</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>224.7411810187706</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>197.7678063626017</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2450,7 +2450,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>286.4654361897219</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>184.4530101301296</v>
       </c>
     </row>
     <row r="27">
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>228.723499869213</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>223.4096551115026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>57.92518451681106</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>76.28380354614087</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8494828513097</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>390.6234365194763</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>47.22555979368813</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>186.7760034523338</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>158.1556649146124</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>150.9601371840612</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>76.28380354614102</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>173.2727459667329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>47.87730750143871</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5219900933418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>261.8173103786154</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>286.8517409876633</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>150.3013276789174</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>138.899218037197</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>339.5304123217219</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>132.6182532445042</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>98.02480001577896</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>18.1363403611662</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066254</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N2" t="n">
-        <v>407.650846758856</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735303</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R2" t="n">
-        <v>566.6212953489513</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S2" t="n">
-        <v>566.6212953489513</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T2" t="n">
-        <v>566.6212953489513</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U2" t="n">
-        <v>566.6212953489513</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V2" t="n">
-        <v>566.6212953489513</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W2" t="n">
-        <v>418.2918801078316</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X2" t="n">
-        <v>269.9624648667118</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y2" t="n">
-        <v>121.633049625592</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>12.36141687342358</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L3" t="n">
-        <v>111.955424848822</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M3" t="n">
-        <v>247.5338027825022</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N3" t="n">
-        <v>392.9114626603237</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408224</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200476</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548342</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548342</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548342</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548342</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="U3" t="n">
-        <v>439.0550691137144</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="V3" t="n">
-        <v>290.7256538725946</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="W3" t="n">
-        <v>142.3962386314749</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709668</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543237</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510262</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.7256538725944</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="C5" t="n">
-        <v>290.7256538725944</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="D5" t="n">
-        <v>290.7256538725944</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="E5" t="n">
-        <v>290.7256538725944</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3962386314747</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="G5" t="n">
-        <v>142.3962386314747</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H5" t="n">
-        <v>142.3962386314747</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709668</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779182997</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458392</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066253</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588557</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.23612467353</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548338</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548338</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548338</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548338</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T5" t="n">
-        <v>439.0550691137141</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U5" t="n">
-        <v>439.0550691137141</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V5" t="n">
-        <v>439.0550691137141</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="W5" t="n">
-        <v>439.0550691137141</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="X5" t="n">
-        <v>439.0550691137141</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.7256538725944</v>
+        <v>367.4869038041714</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137141</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="C6" t="n">
-        <v>297.695356257552</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="D6" t="n">
-        <v>149.3659410164323</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="E6" t="n">
-        <v>149.3659410164323</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F6" t="n">
-        <v>149.3659410164323</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616808</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415665</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>248.1447726172886</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>393.52243249511</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>511.7941057756086</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548338</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548338</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548338</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548338</v>
+        <v>348.704346521884</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548338</v>
+        <v>348.704346521884</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548338</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548338</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137141</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137141</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137141</v>
+        <v>235.4592352845873</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543236</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510261</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665693</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709668</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709668</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709668</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.1605361513809</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="C8" t="n">
-        <v>331.1605361513809</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="D8" t="n">
-        <v>331.1605361513809</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="E8" t="n">
-        <v>331.1605361513809</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513809</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U8" t="n">
-        <v>710.0001061843504</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V8" t="n">
-        <v>710.0001061843504</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W8" t="n">
-        <v>710.0001061843504</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X8" t="n">
-        <v>710.0001061843504</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y8" t="n">
-        <v>520.5803211678657</v>
+        <v>449.9835782035085</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.53661367296053</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="C9" t="n">
-        <v>30.53661367296053</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="D9" t="n">
-        <v>30.53661367296053</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>110.1287797974577</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>244.4944128384901</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>387.722817942822</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>504.8557034062623</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264277</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="S9" t="n">
-        <v>676.9378076264277</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="T9" t="n">
-        <v>487.5180226099429</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="U9" t="n">
-        <v>298.0982375934582</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="V9" t="n">
-        <v>108.6784525769735</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="W9" t="n">
-        <v>108.6784525769735</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="X9" t="n">
-        <v>30.53661367296053</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.53661367296053</v>
+        <v>61.91402896329873</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.511388127729</v>
+        <v>1060.657767521151</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.548871187317</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="D11" t="n">
-        <v>905.2831725805665</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823222</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993393</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649822</v>
+        <v>1837.396939561085</v>
       </c>
       <c r="W11" t="n">
-        <v>2435.796531379708</v>
+        <v>1837.396939561085</v>
       </c>
       <c r="X11" t="n">
-        <v>2409.250560167662</v>
+        <v>1837.396939561085</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.11122819185</v>
+        <v>1447.257607585273</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>693.0104463829898</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.901244094985</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1531.074939101746</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1276.837582373545</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1068.986082168012</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>861.2257834030579</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>228.0547555205106</v>
+        <v>338.6408822103605</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>169.7046992824536</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>169.7046992824536</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>169.7046992824536</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>169.7046992824536</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U13" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V13" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W13" t="n">
-        <v>409.7032203507503</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X13" t="n">
-        <v>409.7032203507503</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y13" t="n">
-        <v>409.7032203507503</v>
+        <v>520.2893470406002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.370295943748</v>
+        <v>1078.189361700645</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.370295943748</v>
+        <v>1078.189361700645</v>
       </c>
       <c r="D14" t="n">
-        <v>950.1045973369978</v>
+        <v>1078.189361700645</v>
       </c>
       <c r="E14" t="n">
-        <v>950.1045973369978</v>
+        <v>692.4011091024006</v>
       </c>
       <c r="F14" t="n">
-        <v>539.1186925473903</v>
+        <v>692.4011091024006</v>
       </c>
       <c r="G14" t="n">
-        <v>124.0462423923868</v>
+        <v>276.3700638058078</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1078.189361700645</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1078.189361700645</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>660.4702325826747</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1290.683225095898</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1036.445868367697</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1036.445868367697</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>828.6855696027428</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.4802848832071</v>
+        <v>212.305379466</v>
       </c>
       <c r="C16" t="n">
-        <v>234.5441019553002</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D16" t="n">
-        <v>84.42746254296446</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W16" t="n">
-        <v>631.4698357812244</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X16" t="n">
-        <v>403.4802848832071</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.4802848832071</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>939.4077790033357</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>342.3669689068678</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X19" t="n">
-        <v>114.3774180088505</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1628.178203944121</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C20" t="n">
-        <v>1259.215687003709</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D20" t="n">
-        <v>900.949988396959</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E20" t="n">
-        <v>515.1617357987147</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>104.1758310091072</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y20" t="n">
-        <v>2014.778044008243</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>474.5166334391246</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>474.5166334391246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
@@ -5919,43 +5919,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y22" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>2782.326111562134</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2782.326111562134</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W23" t="n">
-        <v>2782.326111562134</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="V25" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="W25" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="X25" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1632.511388127729</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.548871187317</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2782.716318428742</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W26" t="n">
-        <v>2782.716318428742</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X26" t="n">
-        <v>2409.250560167662</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y26" t="n">
-        <v>2019.11122819185</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,16 +6311,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4020639300938</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4020639300938</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4020639300938</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>444.4359021818241</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4020639300938</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4020639300938</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2185.045504370168</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C29" t="n">
-        <v>1816.082987429756</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D29" t="n">
-        <v>1457.817288823006</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410101</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2961.784676410101</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>2961.784676410101</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>2571.64534443429</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463977</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>143.5664634484873</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6654,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766374</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1597.43590076925</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>1211.647648171006</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>800.6617433813983</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6736,16 +6736,16 @@
         <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W32" t="n">
-        <v>2693.309871889246</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X32" t="n">
-        <v>2693.309871889246</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y32" t="n">
-        <v>2303.170539913434</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>848.0708164780106</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="V34" t="n">
-        <v>848.0708164780106</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="W34" t="n">
-        <v>848.0708164780106</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X34" t="n">
-        <v>848.0708164780106</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y34" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W35" t="n">
-        <v>2884.252265792694</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X35" t="n">
-        <v>2884.252265792694</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1133.347320219774</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C38" t="n">
-        <v>1133.347320219774</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D38" t="n">
-        <v>775.0816216130238</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E38" t="n">
-        <v>775.0816216130238</v>
+        <v>567.8558366504421</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>156.8699318608346</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7219,7 +7219,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.1577228956174</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X40" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y40" t="n">
-        <v>700.1577228956174</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>741.9599508971601</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>330.9740461075525</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>2782.326111562134</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>218.3316393401808</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V43" t="n">
-        <v>218.3316393401808</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.3316393401808</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1418.660964416652</v>
+        <v>1891.353293732297</v>
       </c>
       <c r="C44" t="n">
-        <v>1418.660964416652</v>
+        <v>1522.390776791885</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1164.125078185135</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1164.125078185135</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416652</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,46 +7733,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.4548862703364</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="C46" t="n">
-        <v>363.5187033424295</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>516.0858781999628</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>368.1727846175697</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812242</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="X46" t="n">
-        <v>532.4548862703364</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.4548862703364</v>
+        <v>666.2025176122986</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776032</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.272099491699</v>
+        <v>301.1145543296394</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287045</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>51.47395949496052</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827335</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.77141835213729</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>79.02279728521572</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V3" t="n">
-        <v>85.95446606071673</v>
+        <v>165.5240386062067</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722111</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X3" t="n">
-        <v>76.43092174854306</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="4">
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>28.0735774154645</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474421</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.0448796648253</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.838436914954059</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.1089392838264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.029924653003</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>1.769632077808296</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55555711582397</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>67.23820498408327</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.3918175673451</v>
+        <v>306.0838393274855</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>32.76238326071527</v>
+        <v>60.59583886339203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5989444759302955</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.20675900740713</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>51.47395949496052</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827335</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.77141835213729</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>63.1687270838373</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.8488620722111</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,61 +22956,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0735774154645</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776032</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474421</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.0448796648253</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.838436914954059</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>265.1089392838264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>214.9592758632912</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>238.0586849924383</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>211.4680405089106</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>258.8080606601995</v>
       </c>
     </row>
     <row r="9">
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8084641900818</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>128.4125646885047</v>
+        <v>61.09782853243519</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015393</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>147.5236635727574</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>343.450589178544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>98.58546917859201</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.319608401183928</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>41.37935339401496</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.6489796867191</v>
+        <v>73.65594616114541</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>92.35043533827357</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>161.4508506196741</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.6977699968959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>283.3684314009574</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.86859442887504</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.2391947904495</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.1980047911944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>154.0495330752894</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>373.6346482222989</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>36.54601185084107</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24186,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>26.25399094013139</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>171.9632943158674</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>82.50893465881811</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>41.28682228041305</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>201.784928525924</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>91.9759321761249</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>57.79949846737802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5207149607591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>352.9965411366424</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>89.74200471288735</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.8601725377274</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>20.29828913397716</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>302.0154089237249</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,10 +25128,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>147.4609218293966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>99.43583475327907</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>92.83950704428958</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.2778014719924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>175.853839777687</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>209.4610956967477</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>363.0444181520147</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.06266325875301959</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>149.1044152748381</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>40.90051748247163</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>15.72448058011082</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>215.783823583486</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>67.3456334199895</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>12.80279477842706</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26082,13 +26082,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>127.6848553732582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>428607.5096871536</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>427681.856076875</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>443790.0256720904</v>
+        <v>408111.9599248167</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271861</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271864</v>
+        <v>684371.1989135401</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271867</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135964.1225291977</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>135742.4871577225</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>142169.253493841</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634372</v>
       </c>
       <c r="H2" t="n">
         <v>279684.830763437</v>
@@ -26340,19 +26340,19 @@
         <v>279684.830763437</v>
       </c>
       <c r="K2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="L2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="L2" t="n">
-        <v>279684.8307634369</v>
-      </c>
       <c r="M2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="O2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="P2" t="n">
         <v>279684.830763437</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751303</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074467</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>394942.2080289249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>262827.3641644178</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613396</v>
+        <v>24245.22799179791</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393651</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904875</v>
+        <v>8241.274813353699</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>99043.58793293661</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290929</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4826.555126438433</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>4591.882380170622</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>694.2707799527464</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469141</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469141</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
     </row>
     <row r="5">
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902089</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902088</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.142037458</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767225</v>
+        <v>46295.67344995518</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926647</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987997</v>
+        <v>-228144.05960411</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.847834868</v>
+        <v>166798.148424815</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.847834868</v>
+        <v>-58440.92048919706</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752208</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.441328734</v>
+        <v>180141.2156834227</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.8478348681</v>
+        <v>199381.225232827</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858191</v>
+        <v>196145.168861867</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699045</v>
+        <v>105342.8557422841</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.8478348679</v>
+        <v>134769.3584823114</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572207</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887085</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568386</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>343.8814983365345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.0660360556137</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761141</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551216</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887082</v>
+        <v>92.66494928910242</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582128</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761141</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.439800055122</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761141</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551216</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903398</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877943</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766334</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154183</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871683</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270566</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695509</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961052</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656775</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611123</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339631</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645456</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383933</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>138.4613654251942</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358322</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206852</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720418</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050584</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297034</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864953</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793584</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120828</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674033</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910841</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903398</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877943</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766334</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154183</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871683</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270566</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695509</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961052</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656775</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611123</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339631</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645456</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383933</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986735</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358322</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>240.3006435944648</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720418</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050584</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297034</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864953</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793584</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120828</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674033</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910841</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>208.5652390081756</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043779</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718106</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.90816207296</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744185</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040798</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6199264508352486</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L3" t="n">
-        <v>100.600008055958</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986669</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469683</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679312</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.617141247259184</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945134</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394199</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813567</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043779</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718106</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.90816207296</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744185</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040798</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431455</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.600008055958</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>98.16660967244653</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887085</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469683</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679312</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945134</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394199</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813567</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>74.59083159384535</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
